--- a/DataGenerator/XLSXS/Script.xlsx
+++ b/DataGenerator/XLSXS/Script.xlsx
@@ -91,58 +91,63 @@
   </si>
   <si>
     <t>하~암… 졸려…
-네? 어제 밤새 게임… 이 아니라! 공부하느라요. 헤헤…</t>
+밤새 게임… 이 아니라!
+공부하느라요. 헤헤…</t>
   </si>
   <si>
     <t>basic</t>
   </si>
   <si>
-    <t>교수님들은 다들 제가 자기 수업만 듣는 줄 아시나봐요…!</t>
+    <t>교수님들은 다들 제가 그 수업 하나만 듣는다고 생각하시는 것 같아요...!</t>
   </si>
   <si>
     <t>sad</t>
   </si>
   <si>
-    <t>이번에 조별 과제를 하게 되었는데... 모두들 절 조장으로 추천하는 거 있죠? 역시 조원들 전부 제가 가장 리더답다고 생각했나봐요!</t>
+    <t>제가 조장이에요! 역시 조원들 모두 제가 가장 리더답다고 생각했나 봐요!</t>
   </si>
   <si>
-    <t>카페인… 카페인이 필요해요…</t>
+    <t>카페인…
+카페인이 필요해요…</t>
   </si>
   <si>
-    <t>내일은 공강이라서요! 미뤄놨던 애니메이션… 이 아니라!
-…… 과제가 있었네요…</t>
+    <t>내일은 공강이니까! 신작 애니메이션… 이 아니라!
+과제가 있었네요…</t>
   </si>
   <si>
-    <t>이번에 교수님께서 퀘스트를 너무 많이…
-아! 과제요, 과제.</t>
+    <t>교수님께서 퀘스트를 너무 많이… 아! 과제요, 과제.</t>
   </si>
   <si>
     <t>오늘 진짜 바빴어요…
-얼마나 바빴냐면 진짜 진짜 바빴어요…!</t>
+얼마나 바빴냐면...
+진짜 진짜 바빴어요…!</t>
   </si>
   <si>
     <t>분명히 알람을 맞췄었는데,
 오전이 아니라 오후로 설정했더라고요…</t>
   </si>
   <si>
-    <t>이번 학기 공부 계획은 완벽하게 세웠어요!
-이제 지키기만 하면… 되… 는데. 흠흠.</t>
+    <t>공부 계획은 완벽해요!
+이제 지키기만 하면…
+되… 는데. 흠흠.</t>
   </si>
   <si>
-    <t>누구나 그럴싸한 계획이 있죠.
-과제 폭탄을 맞기 전까지는…!</t>
+    <t>누구나 그럴싸한 계획이 있죠. 과제 폭탄을 맞기 전까지는…!</t>
   </si>
   <si>
-    <t>그러니까… 오늘 꼭 해야 할 일이…
+    <t>그러니까…
+오늘 꼭 해야 할 일이…
 어? 뭐더라?</t>
   </si>
   <si>
-    <t>수업 듣기 싫어… 너무 졸려…
+    <t>수업 듣기 싫어…
+너무 졸려…
 헛! 혹시 들으셨어요?</t>
   </si>
   <si>
-    <t>이번에 정말 갖고 싶은 굿즈가 새로 나왔는데…
-통장이 텅 비었네요. 알바라도 해야 하나…?</t>
+    <t>정말 갖고 싶은 굿즈가
+새로 나왔는데…
+알바라도 해야 하나…?</t>
   </si>
   <si>
     <t>배고프고, 졸리고, 힘들고… 으으…</t>
@@ -151,7 +156,8 @@
     <t>음흠~ 으흐흠~</t>
   </si>
   <si>
-    <t>방금 밥 먹었는데, 왜 또 배가 고픈 걸까요?</t>
+    <t>방금 밥 먹었는데,
+왜 또 배가 고픈 걸까요?</t>
   </si>
   <si>
     <t>오늘따라 길에 사람들이 많네요? 어디 이벤트라도 있나?</t>
@@ -161,23 +167,27 @@
 제출 기한이 어제까지였다는 것만 빼면요…</t>
   </si>
   <si>
-    <t>교수님이 쪽지 시험을 본다고 하셨는데, 그게… 오늘이었나?</t>
+    <t>쪽지 시험이 있었는데,
+그게… 오늘이었나?</t>
   </si>
   <si>
-    <t>이번 강의는 열심히 필기했어요!
-엇, 근데… 뭐라고 써 둔 거지?</t>
+    <t>열심히 필기했어요!
+엇, 근데…
+뭐라고 써 둔 거지?</t>
   </si>
   <si>
-    <t>1교시 수업만 아니었어도, 훨씬 더 좋았을텐데…</t>
+    <t>1교시 수업만 아니었어도,
+훨씬 더 좋았을텐데…</t>
   </si>
   <si>
-    <t>오늘 등교하는 꿈을 꿨어요. ……어? 설마 지금도?</t>
+    <t>등교하는 꿈을 꿨어요.
+……어? 설마 지금도?</t>
   </si>
   <si>
     <t>고양이들이 절 피하네요… 간식이라도 준비해야 하나?</t>
   </si>
   <si>
-    <t>미래의 진로 선택보다 고민되는 건…
+    <t>진로 선택보다 고민되는 건…
 바로 오늘 점심 메뉴…!</t>
   </si>
   <si>
@@ -188,7 +198,8 @@
 …네? 아, 그렇다고 잘 했다는 건 아니고… 헤헤.</t>
   </si>
   <si>
-    <t>오늘 발표 잘 했냐고요? 음… 무사히 끝난 것 같아요!</t>
+    <t>오늘 발표 잘 했냐고요?
+음… 최선을 다했어요!</t>
   </si>
   <si>
     <t>조교님! 힘세고 강한 아침!!!</t>
@@ -200,32 +211,40 @@
     <t>수강신청… 그 날 조금만 더 민첩했더라도…!</t>
   </si>
   <si>
-    <t>얼리버드기상! 줄여서 얼버기!!!</t>
+    <t>얼리버드기상!
+줄여서 얼버기!!!</t>
   </si>
   <si>
-    <t>조교님, 울트라리스트를 줄이면 울라리가 맞죠?
-왜 아빠는 울트라라고만 하시는 걸까요…</t>
+    <t>조교님, 울트라리스트를
+줄이면 울라리가 맞죠?
+왜 아빠는 울트라라고만
+하시는 걸까요…</t>
   </si>
   <si>
-    <t>푸엣취! 으아… 감기 조심하세요…</t>
+    <t>푸엣취!
+으아… 감기 조심하세요…</t>
   </si>
   <si>
     <t>한 판 더 해도 수업 안 늦겠죠?</t>
   </si>
   <si>
-    <t>으으… 오늘도 과제가 산더미야… 하지만 나는 할 수 있어! ……할 수 있겠지?</t>
+    <t>오늘도 과제가 산더미야…
+하지만 나는 할 수 있어!
+…할 수 있겠지?</t>
   </si>
   <si>
-    <t>이거 보셨어요? 새로운 맛집이 생겼대요! 완전 가보고 싶지 않아요?</t>
+    <t>이거 보셨어요? 새로운 맛집이 생겼대요! 진짜 완전 가보고 싶지 않으세요?</t>
   </si>
   <si>
     <t>오늘도 수업 끝나고 바로 집에 가야지… 집에 가서… 게임 해야지!</t>
   </si>
   <si>
-    <t>오늘도 밤샘 각인가… 하지만 이번 주말에는 꼭 늦잠 잘 거야!</t>
+    <t>오늘도 밤샘 각인가…
+하지만 이번 주말에는 꼭 늦잠 잘 거야!</t>
   </si>
   <si>
-    <t>으아아… 오늘은 반드시! 잠 은행의 대출을 갚아야 해요…</t>
+    <t>으아아… 오늘은 반드시!
+잠 은행의 대출을 갚아야 해요…</t>
   </si>
   <si>
     <t>앗, 새로운 스킨이 또 나왔어요! 사야 하나 말아야 하나…</t>
@@ -252,7 +271,8 @@
     <t>저 부르셨어요?</t>
   </si>
   <si>
-    <t>오늘은 오후 공강이라, 시간 완전 남아요!</t>
+    <t>오늘은 오후 공강이라,
+시간 완전 남아요!</t>
   </si>
   <si>
     <t>즐거운~ 점심 시간~</t>

--- a/DataGenerator/XLSXS/Script.xlsx
+++ b/DataGenerator/XLSXS/Script.xlsx
@@ -187,8 +187,9 @@
     <t>고양이들이 절 피하네요… 간식이라도 준비해야 하나?</t>
   </si>
   <si>
-    <t>진로 선택보다 고민되는 건…
-바로 오늘 점심 메뉴…!</t>
+    <t>진로 선택보다 더
+고민되는 건 바로…
+오늘 점심 메뉴…!</t>
   </si>
   <si>
     <t>충전기를 놓고 와서 집에 갔다 왔는데, 이번엔 휴대폰을 놓고 왔네요…</t>
@@ -225,7 +226,8 @@
 으아… 감기 조심하세요…</t>
   </si>
   <si>
-    <t>한 판 더 해도 수업 안 늦겠죠?</t>
+    <t>한 판 더 해도
+수업 안 늦겠죠?</t>
   </si>
   <si>
     <t>오늘도 과제가 산더미야…
@@ -240,7 +242,8 @@
   </si>
   <si>
     <t>오늘도 밤샘 각인가…
-하지만 이번 주말에는 꼭 늦잠 잘 거야!</t>
+하지만 이번 주말에는
+꼭 늦잠 잘 거야!</t>
   </si>
   <si>
     <t>으아아… 오늘은 반드시!
@@ -259,7 +262,9 @@
     <t>모르셨어요? 간식 들어가는 배는 따로 있다고요!</t>
   </si>
   <si>
-    <t>오늘은 발표에, 내일은 과제 마감이고… 으으…</t>
+    <t>오늘은 발표에,
+내일은 과제 마감이고…
+으으…</t>
   </si>
   <si>
     <t>어쩐지 어깨가 가볍더라니, 전공책을 두고 왔네요…!</t>

--- a/DataGenerator/XLSXS/Script.xlsx
+++ b/DataGenerator/XLSXS/Script.xlsx
@@ -160,7 +160,8 @@
 왜 또 배가 고픈 걸까요?</t>
   </si>
   <si>
-    <t>오늘따라 길에 사람들이 많네요? 어디 이벤트라도 있나?</t>
+    <t>오늘따라 사람들이 많네?
+어디 이벤트라도 하나?</t>
   </si>
   <si>
     <t>과제는 완벽하게 해냈어요!
